--- a/结果/CHB-MIT数据集/SVM分类/样本熵/SVM_chb01_sampen.xlsx
+++ b/结果/CHB-MIT数据集/SVM分类/样本熵/SVM_chb01_sampen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\CHB-MIT数据集\SVM分类\样本熵\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B596F363-9320-4665-B2DF-ED394344F259}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD63054-56E3-4716-BFE1-982E907796E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="276" yWindow="1344" windowWidth="15828" windowHeight="11016" activeTab="5" xr2:uid="{F3FFDAB1-F0B7-4BB9-84BE-9BD63347EF2D}"/>
+    <workbookView xWindow="2124" yWindow="648" windowWidth="15828" windowHeight="11016" activeTab="5" xr2:uid="{F3FFDAB1-F0B7-4BB9-84BE-9BD63347EF2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Origin" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="8">
   <si>
     <t>acc</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,12 +49,31 @@
     <t>spe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>求和</t>
+  </si>
+  <si>
+    <t>平均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD3,CD4,CD5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +84,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -93,8 +121,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -411,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD14EF01-403A-4DFC-9B7B-B8B6CEBFB1E2}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -428,6 +459,188 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>61.458300000000001</v>
+      </c>
+      <c r="B2">
+        <v>94</v>
+      </c>
+      <c r="C2">
+        <v>26.087</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>68.75</v>
+      </c>
+      <c r="B4">
+        <v>94.545500000000004</v>
+      </c>
+      <c r="C4">
+        <v>34.146299999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>61.458300000000001</v>
+      </c>
+      <c r="B6">
+        <v>95.652199999999993</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>63.541699999999999</v>
+      </c>
+      <c r="B8">
+        <v>97.7273</v>
+      </c>
+      <c r="C8">
+        <v>34.615400000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>59.375</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>23.529399999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>53.125</v>
+      </c>
+      <c r="B13">
+        <v>97.368399999999994</v>
+      </c>
+      <c r="C13">
+        <v>24.137899999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>58.333300000000001</v>
+      </c>
+      <c r="B15">
+        <v>92.307699999999997</v>
+      </c>
+      <c r="C15">
+        <v>18.181799999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>65.625</v>
+      </c>
+      <c r="B17">
+        <v>85.9649</v>
+      </c>
+      <c r="C17">
+        <v>35.897399999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>67.708299999999994</v>
+      </c>
+      <c r="B19">
+        <v>98.076899999999995</v>
+      </c>
+      <c r="C19">
+        <v>31.818200000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>57.291699999999999</v>
+      </c>
+      <c r="B21">
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <v>25.454499999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>55.208300000000001</v>
+      </c>
+      <c r="B24">
+        <v>95.652199999999993</v>
+      </c>
+      <c r="C24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>61.458300000000001</v>
+      </c>
+      <c r="B26">
+        <v>97.674400000000006</v>
+      </c>
+      <c r="C26">
+        <v>32.075499999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>64.583299999999994</v>
+      </c>
+      <c r="B28">
+        <v>94.230800000000002</v>
+      </c>
+      <c r="C28">
+        <v>29.545500000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>63.541699999999999</v>
+      </c>
+      <c r="B30">
+        <v>96</v>
+      </c>
+      <c r="C30">
+        <v>28.260899999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>64.583299999999994</v>
+      </c>
+      <c r="B32">
+        <v>95.918400000000005</v>
+      </c>
+      <c r="C32">
+        <v>31.914899999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f t="shared" ref="A33:C33" si="0">AVERAGE(A2:A32)</f>
+        <v>61.7361</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>95.67458000000002</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>28.244313333333331</v>
       </c>
     </row>
   </sheetData>
@@ -439,10 +652,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B810C507-C82A-45BD-9B4D-1B00DFD3EF7E}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -456,6 +669,185 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>52.083300000000001</v>
+      </c>
+      <c r="B2">
+        <v>6.25</v>
+      </c>
+      <c r="C2">
+        <v>97.916700000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>46.875</v>
+      </c>
+      <c r="B4">
+        <v>21.739100000000001</v>
+      </c>
+      <c r="C4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>45.833300000000001</v>
+      </c>
+      <c r="B6">
+        <v>7.2727000000000004</v>
+      </c>
+      <c r="C6">
+        <v>97.561000000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>43.75</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>57.291699999999999</v>
+      </c>
+      <c r="B10">
+        <v>28.571400000000001</v>
+      </c>
+      <c r="C10">
+        <v>87.233999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>40.625</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>46.875</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>44.791699999999999</v>
+      </c>
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>45.833300000000001</v>
+      </c>
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>45.833300000000001</v>
+      </c>
+      <c r="B21">
+        <v>17.647099999999998</v>
+      </c>
+      <c r="C21">
+        <v>77.777799999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>43.75</v>
+      </c>
+      <c r="B24">
+        <v>11.538500000000001</v>
+      </c>
+      <c r="C24">
+        <v>81.818200000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>55.208300000000001</v>
+      </c>
+      <c r="B26">
+        <v>22.916699999999999</v>
+      </c>
+      <c r="C26">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>50</v>
+      </c>
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>97.826099999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>50</v>
+      </c>
+      <c r="B30">
+        <v>48.8889</v>
+      </c>
+      <c r="C30">
+        <v>50.980400000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>46.875</v>
+      </c>
+      <c r="B32">
+        <v>100</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f t="shared" ref="A33:C33" si="0">AVERAGE(A2:A32)</f>
+        <v>47.708326666666672</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>44.721626666666673</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>56.574280000000009</v>
       </c>
     </row>
   </sheetData>
@@ -466,10 +858,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87B1D5B3-E0CB-4F55-A1B0-E92DE0517301}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -483,6 +875,185 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>57.291699999999999</v>
+      </c>
+      <c r="B2">
+        <v>54.545499999999997</v>
+      </c>
+      <c r="C2">
+        <v>59.615400000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>54.166699999999999</v>
+      </c>
+      <c r="B4">
+        <v>37.254899999999999</v>
+      </c>
+      <c r="C4">
+        <v>73.333299999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>59.375</v>
+      </c>
+      <c r="B6">
+        <v>58.333300000000001</v>
+      </c>
+      <c r="C6">
+        <v>60.416699999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>52.083300000000001</v>
+      </c>
+      <c r="B8">
+        <v>50</v>
+      </c>
+      <c r="C8">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>59.375</v>
+      </c>
+      <c r="B10">
+        <v>56.862699999999997</v>
+      </c>
+      <c r="C10">
+        <v>62.222200000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>55.208300000000001</v>
+      </c>
+      <c r="B13">
+        <v>54.545499999999997</v>
+      </c>
+      <c r="C13">
+        <v>55.769199999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>61.458300000000001</v>
+      </c>
+      <c r="B15">
+        <v>54.166699999999999</v>
+      </c>
+      <c r="C15">
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>56.25</v>
+      </c>
+      <c r="B17">
+        <v>44.898000000000003</v>
+      </c>
+      <c r="C17">
+        <v>68.085099999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>58.333300000000001</v>
+      </c>
+      <c r="B19">
+        <v>53.191499999999998</v>
+      </c>
+      <c r="C19">
+        <v>63.265300000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>56.25</v>
+      </c>
+      <c r="B21">
+        <v>51.923099999999998</v>
+      </c>
+      <c r="C21">
+        <v>61.363599999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>59.375</v>
+      </c>
+      <c r="B24">
+        <v>53.191499999999998</v>
+      </c>
+      <c r="C24">
+        <v>65.306100000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>57.291699999999999</v>
+      </c>
+      <c r="B26">
+        <v>65.116299999999995</v>
+      </c>
+      <c r="C26">
+        <v>50.943399999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>56.25</v>
+      </c>
+      <c r="B28">
+        <v>36.363599999999998</v>
+      </c>
+      <c r="C28">
+        <v>82.9268</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>56.25</v>
+      </c>
+      <c r="B30">
+        <v>63.829799999999999</v>
+      </c>
+      <c r="C30">
+        <v>48.979599999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>57.291699999999999</v>
+      </c>
+      <c r="B32">
+        <v>52.083300000000001</v>
+      </c>
+      <c r="C32">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f t="shared" ref="A33:C33" si="0">AVERAGE(A2:A32)</f>
+        <v>57.083333333333336</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>52.420380000000009</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>62.498446666666673</v>
       </c>
     </row>
   </sheetData>
@@ -493,10 +1064,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C72B51-2F65-4A3E-B040-1720690970AF}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -510,6 +1081,185 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>61.458300000000001</v>
+      </c>
+      <c r="B2">
+        <v>73.912999999999997</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>62.5</v>
+      </c>
+      <c r="B4">
+        <v>79.069800000000001</v>
+      </c>
+      <c r="C4">
+        <v>49.056600000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>65.625</v>
+      </c>
+      <c r="B6">
+        <v>71.153800000000004</v>
+      </c>
+      <c r="C6">
+        <v>59.090899999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>67.708299999999994</v>
+      </c>
+      <c r="B8">
+        <v>74.545500000000004</v>
+      </c>
+      <c r="C8">
+        <v>58.5366</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>66.666700000000006</v>
+      </c>
+      <c r="B10">
+        <v>70.454499999999996</v>
+      </c>
+      <c r="C10">
+        <v>63.461500000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>62.5</v>
+      </c>
+      <c r="B13">
+        <v>58.333300000000001</v>
+      </c>
+      <c r="C13">
+        <v>66.666700000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>67.708299999999994</v>
+      </c>
+      <c r="B15">
+        <v>77.083299999999994</v>
+      </c>
+      <c r="C15">
+        <v>58.333300000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>67.708299999999994</v>
+      </c>
+      <c r="B17">
+        <v>84.782600000000002</v>
+      </c>
+      <c r="C17">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>62.5</v>
+      </c>
+      <c r="B19">
+        <v>71.111099999999993</v>
+      </c>
+      <c r="C19">
+        <v>54.902000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>67.708299999999994</v>
+      </c>
+      <c r="B21">
+        <v>79.2453</v>
+      </c>
+      <c r="C21">
+        <v>53.488399999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>63.541699999999999</v>
+      </c>
+      <c r="B24">
+        <v>73.912999999999997</v>
+      </c>
+      <c r="C24">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>66.666700000000006</v>
+      </c>
+      <c r="B26">
+        <v>73.912999999999997</v>
+      </c>
+      <c r="C26">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>69.791700000000006</v>
+      </c>
+      <c r="B28">
+        <v>73.584900000000005</v>
+      </c>
+      <c r="C28">
+        <v>65.116299999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>67.708299999999994</v>
+      </c>
+      <c r="B30">
+        <v>70.212800000000001</v>
+      </c>
+      <c r="C30">
+        <v>65.306100000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>66.666700000000006</v>
+      </c>
+      <c r="B32">
+        <v>85.416700000000006</v>
+      </c>
+      <c r="C32">
+        <v>47.916699999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f t="shared" ref="A33:C33" si="0">AVERAGE(A2:A32)</f>
+        <v>65.763886666666664</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>74.448840000000004</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>57.191673333333334</v>
       </c>
     </row>
   </sheetData>
@@ -520,10 +1270,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44C781B-F187-40A4-BD80-7077415D3088}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -537,6 +1287,185 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>66.666700000000006</v>
+      </c>
+      <c r="B2">
+        <v>83.333299999999994</v>
+      </c>
+      <c r="C2">
+        <v>45.238100000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>65.625</v>
+      </c>
+      <c r="B4">
+        <v>83.7209</v>
+      </c>
+      <c r="C4">
+        <v>50.943399999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>59.375</v>
+      </c>
+      <c r="B6">
+        <v>78.260900000000007</v>
+      </c>
+      <c r="C6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>68.75</v>
+      </c>
+      <c r="B8">
+        <v>86</v>
+      </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>67.708299999999994</v>
+      </c>
+      <c r="B10">
+        <v>91.489400000000003</v>
+      </c>
+      <c r="C10">
+        <v>44.898000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>60.416699999999999</v>
+      </c>
+      <c r="B13">
+        <v>92.307699999999997</v>
+      </c>
+      <c r="C13">
+        <v>38.596499999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>62.5</v>
+      </c>
+      <c r="B15">
+        <v>84.782600000000002</v>
+      </c>
+      <c r="C15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>73.958299999999994</v>
+      </c>
+      <c r="B17">
+        <v>88.679199999999994</v>
+      </c>
+      <c r="C17">
+        <v>55.814</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>68.75</v>
+      </c>
+      <c r="B19">
+        <v>86.274500000000003</v>
+      </c>
+      <c r="C19">
+        <v>48.8889</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>68.75</v>
+      </c>
+      <c r="B21">
+        <v>80.392200000000003</v>
+      </c>
+      <c r="C21">
+        <v>55.555599999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>66.666700000000006</v>
+      </c>
+      <c r="B24">
+        <v>90.476200000000006</v>
+      </c>
+      <c r="C24">
+        <v>48.148099999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>61.458300000000001</v>
+      </c>
+      <c r="B26">
+        <v>86.956500000000005</v>
+      </c>
+      <c r="C26">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>73.958299999999994</v>
+      </c>
+      <c r="B28">
+        <v>81.818200000000004</v>
+      </c>
+      <c r="C28">
+        <v>63.4146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>61.458300000000001</v>
+      </c>
+      <c r="B30">
+        <v>76.087000000000003</v>
+      </c>
+      <c r="C30">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>64.583299999999994</v>
+      </c>
+      <c r="B32">
+        <v>86.274500000000003</v>
+      </c>
+      <c r="C32">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f t="shared" ref="A33:C33" si="0">AVERAGE(A2:A32)</f>
+        <v>66.041660000000007</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>85.123539999999991</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>47.433146666666659</v>
       </c>
     </row>
   </sheetData>
@@ -547,15 +1476,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F05EFAA-3903-4D02-8A9E-646074610CBB}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -564,6 +1496,179 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>75</v>
+      </c>
+      <c r="B2">
+        <v>75.862099999999998</v>
+      </c>
+      <c r="C2">
+        <v>73.684200000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>73.958299999999994</v>
+      </c>
+      <c r="B4">
+        <v>86.363600000000005</v>
+      </c>
+      <c r="C4">
+        <v>63.461500000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>62.5</v>
+      </c>
+      <c r="B6">
+        <v>76.1905</v>
+      </c>
+      <c r="C6">
+        <v>51.851900000000001</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>76.041700000000006</v>
+      </c>
+      <c r="B8">
+        <v>85.106399999999994</v>
+      </c>
+      <c r="C8">
+        <v>67.346900000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>69.791700000000006</v>
+      </c>
+      <c r="B10">
+        <v>81.6327</v>
+      </c>
+      <c r="C10">
+        <v>57.446800000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>67.708299999999994</v>
+      </c>
+      <c r="B13">
+        <v>76.470600000000005</v>
+      </c>
+      <c r="C13">
+        <v>57.777799999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>73.958299999999994</v>
+      </c>
+      <c r="B15">
+        <v>86</v>
+      </c>
+      <c r="C15">
+        <v>60.869599999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>72.916700000000006</v>
+      </c>
+      <c r="B17">
+        <v>81.818200000000004</v>
+      </c>
+      <c r="C17">
+        <v>65.384600000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>75</v>
+      </c>
+      <c r="B19">
+        <v>76.595699999999994</v>
+      </c>
+      <c r="C19">
+        <v>73.469399999999993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>67.708299999999994</v>
+      </c>
+      <c r="B21">
+        <v>79.166700000000006</v>
+      </c>
+      <c r="C21">
+        <v>56.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>69.791700000000006</v>
+      </c>
+      <c r="B24">
+        <v>84.444400000000002</v>
+      </c>
+      <c r="C24">
+        <v>56.862699999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>69.791700000000006</v>
+      </c>
+      <c r="B26">
+        <v>78.260900000000007</v>
+      </c>
+      <c r="C26">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>72.916700000000006</v>
+      </c>
+      <c r="B28">
+        <v>77.551000000000002</v>
+      </c>
+      <c r="C28">
+        <v>68.085099999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>66.666700000000006</v>
+      </c>
+      <c r="B30">
+        <v>81.25</v>
+      </c>
+      <c r="C30">
+        <v>52.083300000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>75</v>
+      </c>
+      <c r="B32">
+        <v>78.846199999999996</v>
+      </c>
+      <c r="C32">
+        <v>70.454499999999996</v>
       </c>
     </row>
   </sheetData>

--- a/结果/CHB-MIT数据集/SVM分类/样本熵/SVM_chb01_sampen.xlsx
+++ b/结果/CHB-MIT数据集/SVM分类/样本熵/SVM_chb01_sampen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\CHB-MIT数据集\SVM分类\样本熵\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD63054-56E3-4716-BFE1-982E907796E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF32EC4D-D4B8-475B-A56E-E86427D88173}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2124" yWindow="648" windowWidth="15828" windowHeight="11016" activeTab="5" xr2:uid="{F3FFDAB1-F0B7-4BB9-84BE-9BD63347EF2D}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="15828" windowHeight="11016" activeTab="5" xr2:uid="{F3FFDAB1-F0B7-4BB9-84BE-9BD63347EF2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Origin" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="4">
   <si>
     <t>acc</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,21 +47,6 @@
   </si>
   <si>
     <t>spe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>求和</t>
-  </si>
-  <si>
-    <t>平均值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -860,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87B1D5B3-E0CB-4F55-A1B0-E92DE0517301}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C32"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1066,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C72B51-2F65-4A3E-B040-1720690970AF}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C32"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1272,8 +1257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44C781B-F187-40A4-BD80-7077415D3088}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C32"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1476,10 +1461,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F05EFAA-3903-4D02-8A9E-646074610CBB}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1531,7 +1516,7 @@
         <v>51.851900000000001</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1669,6 +1654,20 @@
       </c>
       <c r="C32">
         <v>70.454499999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f t="shared" ref="A33:C33" si="0">AVERAGE(A2:A32)</f>
+        <v>71.250006666666664</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>80.370599999999996</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>62.468553333333332</v>
       </c>
     </row>
   </sheetData>
